--- a/pkg_recommendation/rosindex/user_queries_rosindex.xlsx
+++ b/pkg_recommendation/rosindex/user_queries_rosindex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32020" windowHeight="17040"/>
+    <workbookView windowWidth="27660" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="user_queries" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="645">
   <si>
     <t>query_id</t>
   </si>
@@ -80,6 +80,15 @@
     <t>discover other ROS masters</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=</t>
+  </si>
+  <si>
+    <t>&amp;section=pkgs</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=discover other ROS masters&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>Synchronize the local ROS master</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
     <t>Synchronize the local ROS master to the remote masters      discovered by master_discovery_fkie node. The registration     of topics and services is only perform by local ROS master.</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=Synchronize the local ROS master&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>use GUI to pilot the robot using Twist message</t>
   </si>
   <si>
@@ -102,6 +114,9 @@
   </si>
   <si>
     <t>steering a robot using Twist messages,GUI plugin</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=steering a robot using Twist messages,GUI plugin&amp;section=pkgs</t>
   </si>
   <si>
     <t>use OpenCV to capture camera image</t>
@@ -123,6 +138,9 @@
     <t>camera</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=capture camera image,OpenCV&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>view image from ROS image topics</t>
   </si>
   <si>
@@ -146,6 +164,9 @@
   </si>
   <si>
     <t>view image,viewer,ROS image topics</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=view image,viewer,ROS image topics&amp;section=pkgs</t>
   </si>
   <si>
     <t>meta-package for esay install velodyne simulation components</t>
@@ -176,6 +197,9 @@
 velodyne</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar for easy install velodyne&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>description package for velodyne lidar</t>
   </si>
   <si>
@@ -192,6 +216,9 @@
     <t>description_package</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>use gazebo plugin to provide simulated data from velodyne lidar</t>
   </si>
   <si>
@@ -214,6 +241,9 @@
     <t>velodyne hdl-64e 3d lidar, provide simulated data, gazebo plugin</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar, provide simulated data, gazebo plugin&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>launch the driver for velodyne lidar</t>
   </si>
   <si>
@@ -233,6 +263,9 @@
     <t>velodyne hdl-64e 3d lidar driver</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar driver&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>convert data from velodyne lidar to point cloud</t>
   </si>
   <si>
@@ -252,6 +285,9 @@
     <t>velodyne hdl-64e 3d lidar convert to point cloud</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar convert to point cloud&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>launch the driver for leap motion</t>
   </si>
   <si>
@@ -271,6 +307,9 @@
     <t>leap_motion ROS driver</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=leap_motion ROS driver&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>visualize 3d markers</t>
   </si>
   <si>
@@ -283,6 +322,9 @@
     <t>chara: 3D visualization tool</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=visualize 3d markers&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>launch the driver for V4L usb camera</t>
   </si>
   <si>
@@ -298,6 +340,9 @@
     <t>V4L USB Cameras,driver</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=V4L USB Cameras,driver&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>direct ROS topics</t>
   </si>
   <si>
@@ -311,6 +356,9 @@
   </si>
   <si>
     <t>ROS topics,directing</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=ROS topics,directing&amp;section=pkgs</t>
   </si>
   <si>
     <t>interface with Dynamixel servo motors</t>
@@ -335,6 +383,9 @@
     <t>Dynamixel interface with servo motors</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=Dynamixel interface with servo motors&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>tutorials for dynamixel robot</t>
   </si>
   <si>
@@ -348,6 +399,9 @@
   </si>
   <si>
     <t>Dynamixel tutorial</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=Dynamixel tutorial&amp;section=pkgs</t>
   </si>
   <si>
     <t>convert OpenCV images to ROS image messages</t>
@@ -372,6 +426,9 @@
     <t>convert images,ROS Image messages,OpenCV images</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=convert images,ROS Image messages,OpenCV images&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>calibrate parameters for image with OpenCV</t>
   </si>
   <si>
@@ -394,6 +451,9 @@
     <t>interpreting images,calibration OpenCV,sensor_msgs/Image</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=interpreting images,calibration OpenCV,sensor_msgs/Image&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>simulate turtlebot2 in gazebo</t>
   </si>
   <si>
@@ -413,6 +473,9 @@
   </si>
   <si>
     <t>Turtlebot2 Gazebo,simulation</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=Turtlebot2 Gazebo,simulation&amp;section=pkgs</t>
   </si>
   <si>
     <t>open dashboard for turtlebot2</t>
@@ -434,6 +497,9 @@
     <t>Turtlebot2 dashboard</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=Turtlebot2 dashboard&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>automatic docking for kobuki</t>
   </si>
   <si>
@@ -456,6 +522,9 @@
     <t>Kobuki automatic docking</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=Kobuki automatic docking&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>view the real time image</t>
   </si>
   <si>
@@ -465,6 +534,9 @@
     <t>simple viewer,ROS image topics</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=simple viewer,ROS image topics&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>start the tb2 robot</t>
   </si>
   <si>
@@ -481,6 +553,9 @@
   </si>
   <si>
     <t>starting the TurtleBot2</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=starting the TurtleBot2&amp;section=pkgs</t>
   </si>
   <si>
     <t>turtlebot2 create maps with gmapping algorithm</t>
@@ -507,6 +582,9 @@
     <t>Turtlebot2 create maps navigation</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=Turtlebot2 create maps navigation&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>visualize turtlebot2 with rviz</t>
   </si>
   <si>
@@ -527,6 +605,9 @@
     <t>visualize turtlebot2 rviz</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=visualize turtlebot2 rviz&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>use joysticks or keyboard to teleoperate tb2</t>
   </si>
   <si>
@@ -549,6 +630,9 @@
     <t>teleoperate turtlebot2 use joysticks</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=teleoperate turtlebot2 use joysticks&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>save the map</t>
   </si>
   <si>
@@ -562,6 +646,9 @@
   </si>
   <si>
     <t>map</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=save the map&amp;section=pkgs</t>
   </si>
   <si>
     <t>modify parameter with rqt plugin</t>
@@ -586,6 +673,9 @@
     <t>modify the parameters,rqt plugin</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=modify the parameters,rqt plugin&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>start Baxter in Gazebo world</t>
   </si>
   <si>
@@ -606,6 +696,9 @@
   </si>
   <si>
     <t>baxter gazebo</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter gazebo&amp;section=pkgs</t>
   </si>
   <si>
     <t>metapackage for baxter simulation</t>
@@ -628,6 +721,9 @@
     <t>baxter simulation</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter simulation&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>compensate the gravity for baxter in gazebo</t>
   </si>
   <si>
@@ -648,6 +744,9 @@
     <t>baxter compensate the gravity gazebo</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter compensate the gravity gazebo&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>simulate the hardware interfaces for Baxter in Gazebo</t>
   </si>
   <si>
@@ -668,6 +767,9 @@
     <t>baxter simulate the hardware interfaces gazebo</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter simulate the hardware interfaces gazebo&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>baxter samples in gazebo</t>
   </si>
   <si>
@@ -687,6 +789,9 @@
     <t>baxter samples,gazebo</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter samples,gazebo&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>baxter controller in gazebo</t>
   </si>
   <si>
@@ -704,6 +809,9 @@
   </si>
   <si>
     <t>baxter controller,gazebo</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter controller,gazebo&amp;section=pkgs</t>
   </si>
   <si>
     <t>description package for baxter robot</t>
@@ -726,6 +834,9 @@
     <t>baxter URDF,mesh</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter URDF,mesh&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>Message package for baxter</t>
   </si>
   <si>
@@ -742,6 +853,9 @@
     <t>message_package</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=baxter&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>teleoperate hector quadrotor with joystick</t>
   </si>
   <si>
@@ -755,6 +869,9 @@
   </si>
   <si>
     <t>hector quadrotor,joystick</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=hector quadrotor,joystick&amp;section=pkgs</t>
   </si>
   <si>
     <t>supply plugins for hector quadrotor in gazebo</t>
@@ -779,6 +896,9 @@
     <t>supply plugins gazebo,hector quadrotor</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=supply plugins gazebo,hector quadrotor&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>start the hector quadrotor in gazebo simulator</t>
   </si>
   <si>
@@ -792,6 +912,9 @@
   </si>
   <si>
     <t>quadrotor,heactor,gazebo</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=quadrotor,heactor,gazebo&amp;section=pkgs</t>
   </si>
   <si>
     <t>describe the hector quadrotor UAV with URDF model</t>
@@ -817,6 +940,9 @@
     <t>URDF model,quadrotor UAV,heactor quadrotor</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=URDF model,quadrotor UAV,heactor quadrotor&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>demonstrations for hector quadrotor</t>
   </si>
   <si>
@@ -830,6 +956,9 @@
   </si>
   <si>
     <t>demonstration,heator quadrotor</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=demonstration,heator quadrotor&amp;section=pkgs</t>
   </si>
   <si>
     <t>demonstrations for crazyflie</t>
@@ -854,6 +983,9 @@
     <t>crazyflie demostration</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=crazyflie demostration&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>driver package for crazyflie</t>
   </si>
   <si>
@@ -868,6 +1000,9 @@
   </si>
   <si>
     <t>crazyflie driver</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=crazyflie driver&amp;section=pkgs</t>
   </si>
   <si>
     <t>description package to provide URDF model for crazyflie robot</t>
@@ -887,6 +1022,9 @@
     <t>crazyflie URDF model</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=crazyflie URDF model&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>PID controller for navigation of crazyflie</t>
   </si>
   <si>
@@ -907,6 +1045,9 @@
     <t>crazyflie navigation PID controller</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=crazyflie navigation PID controller&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>package that includes tools for bebop</t>
   </si>
   <si>
@@ -920,6 +1061,9 @@
   </si>
   <si>
     <t>bebop,tools</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=bebop,tools&amp;section=pkgs</t>
   </si>
   <si>
     <t>Message package for bebop robot</t>
@@ -938,6 +1082,9 @@
     <t>bebop</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=bebop&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>package that includes bebop_driver_node node</t>
   </si>
   <si>
@@ -957,6 +1104,9 @@
     <t>bebop bebop_driver_node</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=bebop bebop_driver_node&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>description package for bebop robot</t>
   </si>
   <si>
@@ -973,6 +1123,9 @@
     <t>bebop,URDF</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=bebop,URDF&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>use python to implement rosserial protocol</t>
   </si>
   <si>
@@ -986,6 +1139,9 @@
   </si>
   <si>
     <t>python,rosserial protocol</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=python,rosserial protocol&amp;section=pkgs</t>
   </si>
   <si>
     <t>save audio from microphone or mp3 file, and play the audio</t>
@@ -1010,6 +1166,9 @@
     <t>save audio,play audio, microphone,mp3 file,audio</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=save audio,play audio, microphone,mp3 file,audio&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>play the audio</t>
   </si>
   <si>
@@ -1025,6 +1184,9 @@
     <t>play audio,audio</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=play audio,audio&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>translate command from ROS topic</t>
   </si>
   <si>
@@ -1038,6 +1200,9 @@
   </si>
   <si>
     <t>translate commaond</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=translate commaond&amp;section=pkgs</t>
   </si>
   <si>
     <t>Message package for audio</t>
@@ -1056,6 +1221,9 @@
     <t>audio</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=audio&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>audio monitor of rospeex based on browser</t>
   </si>
   <si>
@@ -1078,6 +1246,9 @@
     <t>audio monitor based on browser rospeex,web monitor</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=audio monitor based on browser rospeex,web monitor&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>give some examples for rospeex</t>
   </si>
   <si>
@@ -1097,6 +1268,9 @@
     <t>rospeex</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=give rospeex examples&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>Message package for rospeex</t>
   </si>
   <si>
@@ -1110,6 +1284,9 @@
 cate: message</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=rospeex&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>provide launches for rospeex</t>
   </si>
   <si>
@@ -1129,6 +1306,9 @@
     <t>provide launches rospeex</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=provide launches rospeex&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>package that includes interface libraries for rospeex</t>
   </si>
   <si>
@@ -1148,6 +1328,9 @@
     <t>include interface library rospeex</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=include interface library rospeex&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>package that includes core nodes for rospeex</t>
   </si>
   <si>
@@ -1167,6 +1350,9 @@
     <t>include core node rospeex</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=include core node rospeex&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>audio monitor of rospeex</t>
   </si>
   <si>
@@ -1186,6 +1372,9 @@
     <t>audio monitor rospeex</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=audio monitor rospeex&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>metapackage for rospeex</t>
   </si>
   <si>
@@ -1211,6 +1400,9 @@
     <t>detect faces,image</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=detect faces,image&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>plot scalar data</t>
   </si>
   <si>
@@ -1223,6 +1415,9 @@
     <t>plot,scalar data</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=plot,scalar data&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>visualize multiple graphs separately with rqt</t>
   </si>
   <si>
@@ -1232,6 +1427,9 @@
     <t>visualize multiple graphs,rqt</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=visualize multiple graphs,rqt&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>view multiple images in one window</t>
   </si>
   <si>
@@ -1244,6 +1442,9 @@
     <t>view multiple images</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=view multiple images&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>visualize 3d data in 3d world</t>
   </si>
   <si>
@@ -1259,6 +1460,9 @@
     <t>visualize 3d data 3d world</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=visualize 3d data 3d world&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>visualize, filter and analyze log messages</t>
   </si>
   <si>
@@ -1271,6 +1475,9 @@
     <t>log messages</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=visualize,filter,analyze log messages&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>view the state graph of nodes</t>
   </si>
   <si>
@@ -1286,12 +1493,18 @@
     <t>view the state graph nodes,graph</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=view the state graph nodes,graph&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>create robot model</t>
   </si>
   <si>
     <t>xacro</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=create robot model&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>open gazebo</t>
   </si>
   <si>
@@ -1301,6 +1514,9 @@
     <t>Provides ROS plugins that offer message and service publishers for interfacing with</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=open gazebo&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>transform the coordinateframes</t>
   </si>
   <si>
@@ -1310,6 +1526,9 @@
     <t>tf is a package that lets the user keep track of multiple coordinateframes over time. tf maintains the relationship between coordinateframes in a tree structure buffered in time, and lets the usertransform points, vectors, etc between any two coordinate frames atany desired point in time.</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=transform the coordinateframes&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>teleoperate robot by twist messages with keyboard</t>
   </si>
   <si>
@@ -1328,6 +1547,9 @@
     <t>teleoperate robot twist messages,keyboard</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=teleoperate robot twist messages,keyboard&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>locating the robot in 2d environment</t>
   </si>
   <si>
@@ -1343,6 +1565,9 @@
     <t>locating the robot 2d environment</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=locating the robot 2d environment&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>get feedbacks from executing robot commands</t>
   </si>
   <si>
@@ -1358,6 +1583,9 @@
     <t>get feedbacks executing robot commands</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=get feedbacks executing robot commands&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>start the setup helper for moveit</t>
   </si>
   <si>
@@ -1376,6 +1604,9 @@
     <t>start the setup helper moveit</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=start the setup helper moveit&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>provide base markers</t>
   </si>
   <si>
@@ -1385,6 +1616,9 @@
     <t>The ARUCO Library has been developed by the Ava group of the Univeristy of Cordoba(Spain).    It provides real-time marker based 3D pose estimation using AR markers.</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=provide base markers&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>start the server for grasp with moveit</t>
   </si>
   <si>
@@ -1403,6 +1637,9 @@
     <t>start the server grasp,moveit</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=start the server grasp,moveit&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>use arduino with rosserial protocol</t>
   </si>
   <si>
@@ -1421,6 +1658,9 @@
     <t>use arduino rosserial protocol</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=use arduino rosserial protocol&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>use razor_imu with GUI</t>
   </si>
   <si>
@@ -1439,6 +1679,9 @@
     <t>use razor_imu GUI</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=use razor_imu GUI&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>driver package for Xsens MTi imu</t>
   </si>
   <si>
@@ -1454,6 +1697,9 @@
     <t>Xsens MTi node driver</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=Xsens MTi node driver&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>parse nmea strings and publish GPS messages</t>
   </si>
   <si>
@@ -1466,6 +1712,9 @@
     <t>parse nmea strings,publish GPS messages</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=parse nmea strings,publish GPS messages&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>driver for hokuyo scanning range finder</t>
   </si>
   <si>
@@ -1481,6 +1730,9 @@
     <t>Hokuyo Scanning range finder driver</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=Hokuyo Scanning range finder driver&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>launch openni device</t>
   </si>
   <si>
@@ -1493,6 +1745,9 @@
     <t>openni device</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=launch openni device&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>description package for openni device</t>
   </si>
   <si>
@@ -1502,6 +1757,9 @@
     <t>Model files of OpenNI device.</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=openni device&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>driver package for Kinect</t>
   </si>
   <si>
@@ -1514,6 +1772,9 @@
     <t>driver,Kinect</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=driver,Kinect&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>run driver for camera1394</t>
   </si>
   <si>
@@ -1526,6 +1787,9 @@
     <t>driver,camera1394</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=driver,camera1394&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>plugins for transporting images</t>
   </si>
   <si>
@@ -1544,6 +1808,9 @@
     <t>transporting images plugins</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=transporting images plugins&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>process stereo camera pairs</t>
   </si>
   <si>
@@ -1553,6 +1820,9 @@
     <t>This is a modified version of the ROS driver for devices supporting the IEEE     1394 Digital Camera (IIDC) protocol in package camera1394.     It adds support for reading from stereo pairs.</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=process stereo camera pairs&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>track moving edges with ViSP</t>
   </si>
   <si>
@@ -1571,6 +1841,9 @@
     <t>track moving edges ViSP</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=track moving edges ViSP&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>model based tracker with ViSP</t>
   </si>
   <si>
@@ -1586,6 +1859,9 @@
     <t>model based tracker ViSP</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=model based tracker ViSP&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>interface ViSP with ROS</t>
   </si>
   <si>
@@ -1601,6 +1877,9 @@
     <t>ROS</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=interface ViSP&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>recognize objects</t>
   </si>
   <si>
@@ -1610,6 +1889,9 @@
     <t>object_recognition_core contains tools to launch several recognition pipelines, train objects, store models ...</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=recognize objects&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>visual-based odometry</t>
   </si>
   <si>
@@ -1619,6 +1901,9 @@
     <t>This is the ROS wrapper for libviso2, library for visual odometry (see package libviso2).</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=visual-based odometry&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>visual odometry</t>
   </si>
   <si>
@@ -1628,6 +1913,9 @@
     <t>Fast Odometry from VISion</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=visual odometry&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>Message package for point cloud library</t>
   </si>
   <si>
@@ -1640,6 +1928,9 @@
     <t>point cloud library</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=point cloud library&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>record the point cloud messages</t>
   </si>
   <si>
@@ -1652,6 +1943,9 @@
     <t>record</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=record the point cloud messages&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>PCL interface for ROS</t>
   </si>
   <si>
@@ -1664,6 +1958,9 @@
     <t>PCL interface ,ROS</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=PCL interface ,ROS&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>start mir-100 robot in gazebo simulator</t>
   </si>
   <si>
@@ -1685,6 +1982,9 @@
     <t>start mir-100 robot in gazebo</t>
   </si>
   <si>
+    <t>http://127.0.0.1:4000/search/?term=start mir-100 robot in gazebo&amp;section=pkgs</t>
+  </si>
+  <si>
     <t>run hector_mapping algorithm for mir100 robot</t>
   </si>
   <si>
@@ -1704,81 +2004,25 @@
   </si>
   <si>
     <t>run mapping algorithm MiR robot,hector_mapping</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4000/search/?term=run mapping algorithm MiR robot,hector_mapping&amp;section=pkgs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1792,8 +2036,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1803,6 +2048,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1823,8 +2076,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1838,6 +2122,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,11 +2137,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1861,9 +2158,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1878,79 +2181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,19 +2205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,6 +2229,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2010,7 +2253,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,25 +2301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,13 +2319,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,26 +2375,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2110,6 +2404,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2146,6 +2455,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2154,229 +2472,220 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2645,18 +2954,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="W102" sqref="W102"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" zoomScaleSheetLayoutView="60" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="U103" sqref="U103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="59" customHeight="1"/>
   <cols>
     <col min="2" max="18" width="10.3846153846154" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="47.7403846153846" customWidth="1"/>
+    <col min="22" max="22" width="56.0192307692308" customWidth="1"/>
+    <col min="24" max="25" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" spans="1:19">
+    <row r="1" ht="17" customHeight="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +3025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="409.5" spans="1:19">
+    <row r="2" ht="17" customHeight="1" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2749,27 +3061,47 @@
       <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" ht="353" spans="1:19">
+      <c r="T2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="str">
+        <f>CONCATENATE(T2,S2,U2)</f>
+        <v>http://127.0.0.1:4000/search/?term=discover other ROS masters&amp;section=pkgs</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2">
+        <v>94.6</v>
+      </c>
+      <c r="Y2">
+        <f>X2/1000</f>
+        <v>0.0946</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2784,29 +3116,49 @@
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="168" spans="1:19">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="str">
+        <f>CONCATENATE(T3,S3,U3)</f>
+        <v>http://127.0.0.1:4000/search/?term=Synchronize the local ROS master&amp;section=pkgs</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>100.5</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y34" si="0">X3/1000</f>
+        <v>0.1005</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2821,32 +3173,52 @@
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" ht="219" spans="1:19">
+        <v>32</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V35" si="1">CONCATENATE(T4,S4,U4)</f>
+        <v>http://127.0.0.1:4000/search/?term=steering a robot using Twist messages,GUI plugin&amp;section=pkgs</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4">
+        <v>34</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2860,32 +3232,52 @@
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" ht="202" spans="1:19">
+        <v>38</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=capture camera image,OpenCV&amp;section=pkgs</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2896,39 +3288,59 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="168" spans="1:19">
+        <v>48</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=view image,viewer,ROS image topics&amp;section=pkgs</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2937,37 +3349,58 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" ht="118" spans="1:19">
+        <v>57</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar for easy install
+velodyne&amp;section=pkgs</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7">
+        <v>13.2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0.0132</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2976,37 +3409,57 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" ht="135" spans="1:19">
+        <v>54</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar&amp;section=pkgs</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8">
+        <v>8.9</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0.0089</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3017,35 +3470,55 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" ht="101" spans="1:19">
+        <v>71</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar, provide simulated data, gazebo plugin&amp;section=pkgs</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9">
+        <v>25.3</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0.0253</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3056,35 +3529,55 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" ht="118" spans="1:19">
+        <v>78</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar driver&amp;section=pkgs</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10">
+        <v>16.7</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>0.0167</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3095,35 +3588,55 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" ht="101" spans="1:19">
+        <v>85</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar convert to point cloud&amp;section=pkgs</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11">
+        <v>16.1</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>0.0161</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3137,30 +3650,50 @@
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" ht="68" spans="1:19">
+        <v>92</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=leap_motion ROS driver&amp;section=pkgs</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X12">
+        <v>94.2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>0.0942</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3174,30 +3707,50 @@
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" ht="68" spans="1:19">
+        <v>94</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=visualize 3d markers&amp;section=pkgs</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13">
+        <v>9</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>0.009</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3211,30 +3764,50 @@
         <v>11</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" ht="409.5" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=V4L USB Cameras,driver&amp;section=pkgs</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X14">
+        <v>4.3</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3248,31 +3821,51 @@
         <v>3</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" ht="409.5" spans="1:19">
+        <v>109</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=ROS topics,directing&amp;section=pkgs</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15">
+        <v>100.6</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0.1006</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3287,30 +3880,50 @@
         <v>9</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" ht="135" spans="1:19">
+        <v>117</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=Dynamixel interface with servo motors&amp;section=pkgs</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X16">
+        <v>16.6</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0.0166</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3324,32 +3937,52 @@
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" ht="202" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=Dynamixel tutorial&amp;section=pkgs</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X17">
+        <v>4.9</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>0.0049</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3363,32 +3996,52 @@
         <v>3</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" ht="409.5" spans="1:19">
+        <v>131</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=convert images,ROS Image messages,OpenCV images&amp;section=pkgs</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="X18">
+        <v>12.6</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3402,32 +4055,52 @@
         <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" ht="101" spans="1:19">
+        <v>139</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=interpreting images,calibration OpenCV,sensor_msgs/Image&amp;section=pkgs</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X19">
+        <v>3.3</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3441,32 +4114,52 @@
         <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" ht="101" spans="1:19">
+        <v>147</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=Turtlebot2 Gazebo,simulation&amp;section=pkgs</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X20">
+        <v>2.8</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3480,32 +4173,52 @@
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" ht="269" spans="1:19">
+        <v>154</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=Turtlebot2 dashboard&amp;section=pkgs</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X21">
+        <v>3.5</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="1:25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3519,30 +4232,50 @@
         <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" ht="202" spans="1:19">
+        <v>162</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=Kobuki automatic docking&amp;section=pkgs</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="X22">
+        <v>5.3</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="1" spans="1:25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3556,31 +4289,51 @@
         <v>2</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" ht="185" spans="1:19">
+        <v>166</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=simple viewer,ROS image topics&amp;section=pkgs</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="X23">
+        <v>14.4</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1" spans="1:25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3595,34 +4348,54 @@
         <v>5</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" ht="168" spans="1:19">
+        <v>173</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=starting the TurtleBot2&amp;section=pkgs</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="X24">
+        <v>3.8</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="25" ht="17" customHeight="1" spans="1:25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3631,41 +4404,61 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" ht="101" spans="1:19">
+        <v>181</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=Turtlebot2 create maps navigation&amp;section=pkgs</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="X25">
+        <v>61.9</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>0.0619</v>
+      </c>
+    </row>
+    <row r="26" ht="17" customHeight="1" spans="1:25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3679,34 +4472,54 @@
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" ht="118" spans="1:19">
+        <v>188</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=visualize turtlebot2 rviz&amp;section=pkgs</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="X26">
+        <v>19.6</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>0.0196</v>
+      </c>
+    </row>
+    <row r="27" ht="17" customHeight="1" spans="1:25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3717,35 +4530,55 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" ht="51" spans="1:19">
+        <v>196</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=teleoperate turtlebot2 use joysticks&amp;section=pkgs</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="X27">
+        <v>13.9</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="28" ht="17" customHeight="1" spans="1:25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3756,35 +4589,55 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" ht="370" spans="1:19">
+        <v>198</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=save the map&amp;section=pkgs</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28">
+        <v>95.3</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>0.0953</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="1" spans="1:25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3798,32 +4651,52 @@
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" ht="101" spans="1:19">
+        <v>210</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=modify the parameters,rqt plugin&amp;section=pkgs</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="X29">
+        <v>13.1</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>0.0131</v>
+      </c>
+    </row>
+    <row r="30" ht="17" customHeight="1" spans="1:25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3834,39 +4707,59 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" ht="135" spans="1:19">
+        <v>218</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=baxter gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="X30">
+        <v>96.7</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>0.0967</v>
+      </c>
+    </row>
+    <row r="31" ht="17" customHeight="1" spans="1:25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3875,37 +4768,57 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" ht="168" spans="1:19">
+        <v>225</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=baxter simulation&amp;section=pkgs</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="X31">
+        <v>40.4</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>0.0404</v>
+      </c>
+    </row>
+    <row r="32" ht="17" customHeight="1" spans="1:25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3916,37 +4829,57 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" ht="202" spans="1:19">
+        <v>232</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" t="s">
+        <v>22</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=baxter compensate the gravity gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="X32">
+        <v>20.3</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>0.0203</v>
+      </c>
+    </row>
+    <row r="33" ht="17" customHeight="1" spans="1:25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3957,35 +4890,55 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" ht="84" spans="1:19">
+        <v>239</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=baxter simulate the hardware interfaces gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="X33">
+        <v>391.9</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>0.3919</v>
+      </c>
+    </row>
+    <row r="34" ht="17" customHeight="1" spans="1:25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3996,35 +4949,55 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" ht="101" spans="1:19">
+        <v>246</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" t="s">
+        <v>22</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=baxter samples,gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="X34">
+        <v>5.5</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>0.0055</v>
+      </c>
+    </row>
+    <row r="35" ht="17" customHeight="1" spans="1:25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4035,39 +5008,59 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" ht="269" spans="1:19">
+        <v>253</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" t="s">
+        <v>22</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="1"/>
+        <v>http://127.0.0.1:4000/search/?term=baxter controller,gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="X35">
+        <v>4.1</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ref="Y35:Y66" si="2">X35/1000</f>
+        <v>0.0041</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="1" spans="1:25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -4076,37 +5069,57 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" ht="219" spans="1:19">
+        <v>260</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" t="s">
+        <v>22</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" ref="V36:V67" si="3">CONCATENATE(T36,S36,U36)</f>
+        <v>http://127.0.0.1:4000/search/?term=baxter URDF,mesh&amp;section=pkgs</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="X36">
+        <v>49.7</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="2"/>
+        <v>0.0497</v>
+      </c>
+    </row>
+    <row r="37" ht="17" customHeight="1" spans="1:25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -4115,33 +5128,53 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" ht="286" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=baxter&amp;section=pkgs</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="X37">
+        <v>7.8</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="2"/>
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="38" ht="17" customHeight="1" spans="1:25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -4152,35 +5185,55 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" ht="409.5" spans="1:19">
+        <v>272</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" t="s">
+        <v>22</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=hector quadrotor,joystick&amp;section=pkgs</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="X38">
+        <v>19</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="2"/>
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -4194,30 +5247,50 @@
         <v>1</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" ht="252" spans="1:19">
+        <v>280</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" t="s">
+        <v>22</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=supply plugins gazebo,hector quadrotor&amp;section=pkgs</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="X39">
+        <v>145.8</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="2"/>
+        <v>0.1458</v>
+      </c>
+    </row>
+    <row r="40" ht="17" customHeight="1" spans="1:25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -4231,36 +5304,56 @@
         <v>1</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" ht="185" spans="1:19">
+        <v>286</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" t="s">
+        <v>22</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=quadrotor,heactor,gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="X40">
+        <v>3.4</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="2"/>
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="41" ht="17" customHeight="1" spans="1:25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -4272,30 +5365,50 @@
         <v>1</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" ht="336" spans="1:19">
+        <v>294</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" t="s">
+        <v>22</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=URDF model,quadrotor UAV,heactor quadrotor&amp;section=pkgs</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41">
+        <v>12.1</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="2"/>
+        <v>0.0121</v>
+      </c>
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -4309,32 +5422,52 @@
         <v>1</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" ht="152" spans="1:19">
+        <v>300</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" t="s">
+        <v>22</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=demonstration,heator quadrotor&amp;section=pkgs</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="X42">
+        <v>5.8</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>0.0058</v>
+      </c>
+    </row>
+    <row r="43" ht="17" customHeight="1" spans="1:25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -4348,32 +5481,52 @@
         <v>1</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="44" ht="118" spans="1:19">
+        <v>308</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" t="s">
+        <v>22</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=crazyflie demostration&amp;section=pkgs</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="X43">
+        <v>3.4</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="2"/>
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="44" ht="17" customHeight="1" spans="1:25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -4387,36 +5540,56 @@
         <v>1</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" ht="135" spans="1:19">
+        <v>314</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" t="s">
+        <v>22</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=crazyflie driver&amp;section=pkgs</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="X44">
+        <v>11.2</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="2"/>
+        <v>0.0112</v>
+      </c>
+    </row>
+    <row r="45" ht="17" customHeight="1" spans="1:25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -4428,34 +5601,54 @@
         <v>1</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" ht="168" spans="1:19">
+        <v>320</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" t="s">
+        <v>22</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=crazyflie URDF model&amp;section=pkgs</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X45">
+        <v>9.7</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="2"/>
+        <v>0.0097</v>
+      </c>
+    </row>
+    <row r="46" ht="17" customHeight="1" spans="1:25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -4469,30 +5662,50 @@
         <v>1</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" ht="118" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" t="s">
+        <v>22</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=crazyflie navigation PID controller&amp;section=pkgs</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="X46">
+        <v>31.7</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="2"/>
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="47" ht="17" customHeight="1" spans="1:25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -4506,34 +5719,54 @@
         <v>1</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" ht="101" spans="1:19">
+        <v>333</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" t="s">
+        <v>22</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=bebop,tools&amp;section=pkgs</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="X47">
+        <v>1.5</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="2"/>
+        <v>0.0015</v>
+      </c>
+    </row>
+    <row r="48" ht="17" customHeight="1" spans="1:25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -4545,35 +5778,55 @@
         <v>1</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" ht="168" spans="1:19">
+        <v>339</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=bebop&amp;section=pkgs</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="X48">
+        <v>4.3</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="2"/>
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="49" ht="17" customHeight="1" spans="1:25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -4584,34 +5837,54 @@
         <v>3</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" ht="118" spans="1:19">
+        <v>346</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=bebop bebop_driver_node&amp;section=pkgs</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="X49">
+        <v>4.1</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="2"/>
+        <v>0.0041</v>
+      </c>
+    </row>
+    <row r="50" ht="17" customHeight="1" spans="1:25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4623,30 +5896,50 @@
         <v>1</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" ht="118" spans="1:19">
+        <v>352</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" t="s">
+        <v>22</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=bebop,URDF&amp;section=pkgs</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="X50">
+        <v>3.8</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="2"/>
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="51" ht="17" customHeight="1" spans="1:25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4660,32 +5953,52 @@
         <v>1</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" ht="303" spans="1:19">
+        <v>358</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U51" t="s">
+        <v>22</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=python,rosserial protocol&amp;section=pkgs</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="X51">
+        <v>5.6</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="2"/>
+        <v>0.0056</v>
+      </c>
+    </row>
+    <row r="52" ht="17" customHeight="1" spans="1:25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4699,30 +6012,50 @@
         <v>1</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" ht="101" spans="1:19">
+        <v>366</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" t="s">
+        <v>22</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=save audio,play audio, microphone,mp3 file,audio&amp;section=pkgs</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="X52">
+        <v>11.6</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="2"/>
+        <v>0.0116</v>
+      </c>
+    </row>
+    <row r="53" ht="17" customHeight="1" spans="1:25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4736,29 +6069,49 @@
         <v>2</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" ht="135" spans="1:19">
+        <v>372</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" t="s">
+        <v>22</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=play audio,audio&amp;section=pkgs</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="X53">
+        <v>4.3</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="2"/>
+        <v>0.0043</v>
+      </c>
+    </row>
+    <row r="54" ht="17" customHeight="1" spans="1:25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -4770,37 +6123,57 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" ht="84" spans="1:19">
+        <v>378</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" t="s">
+        <v>22</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=translate commaond&amp;section=pkgs</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="X54">
+        <v>3.5</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="2"/>
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="55" ht="17" customHeight="1" spans="1:25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4812,32 +6185,52 @@
         <v>1</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" ht="336" spans="1:19">
+        <v>384</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" t="s">
+        <v>22</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=audio&amp;section=pkgs</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="X55">
+        <v>3.3</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="2"/>
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="56" ht="17" customHeight="1" spans="1:25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4848,35 +6241,55 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" ht="101" spans="1:19">
+        <v>392</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=audio monitor based on browser rospeex,web monitor&amp;section=pkgs</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="X56">
+        <v>14.7</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="2"/>
+        <v>0.0147</v>
+      </c>
+    </row>
+    <row r="57" ht="17" customHeight="1" spans="1:25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4887,37 +6300,57 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" ht="101" spans="1:19">
+        <v>398</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=give rospeex examples&amp;section=pkgs</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="X57">
+        <v>12.5</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="2"/>
+        <v>0.0125</v>
+      </c>
+    </row>
+    <row r="58" ht="17" customHeight="1" spans="1:25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4926,35 +6359,55 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" ht="101" spans="1:19">
+        <v>399</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" t="s">
+        <v>22</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=rospeex&amp;section=pkgs</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="X58">
+        <v>5.3</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="2"/>
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="59" ht="17" customHeight="1" spans="1:25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4965,35 +6418,55 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" ht="135" spans="1:19">
+        <v>411</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=provide launches rospeex&amp;section=pkgs</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="X59">
+        <v>13.7</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="2"/>
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="60" ht="17" customHeight="1" spans="1:25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -5004,35 +6477,55 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="61" ht="101" spans="1:19">
+        <v>418</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" t="s">
+        <v>22</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=include interface library rospeex&amp;section=pkgs</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="X60">
+        <v>80.1</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="2"/>
+        <v>0.0801</v>
+      </c>
+    </row>
+    <row r="61" ht="17" customHeight="1" spans="1:25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -5043,35 +6536,55 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="62" ht="286" spans="1:19">
+        <v>425</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" t="s">
+        <v>22</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=include core node rospeex&amp;section=pkgs</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="X61">
+        <v>38</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="2"/>
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="62" ht="17" customHeight="1" spans="1:25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -5085,34 +6598,54 @@
         <v>3</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" ht="84" spans="1:19">
+        <v>432</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" t="s">
+        <v>22</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=audio monitor rospeex&amp;section=pkgs</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63" ht="17" customHeight="1" spans="1:25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -5121,33 +6654,53 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" ht="68" spans="1:19">
+        <v>399</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" t="s">
+        <v>22</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=rospeex&amp;section=pkgs</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="X63">
+        <v>3.3</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="2"/>
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="64" ht="17" customHeight="1" spans="1:25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -5158,31 +6711,51 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="65" ht="202" spans="1:19">
+        <v>441</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" t="s">
+        <v>22</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=detect faces,image&amp;section=pkgs</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="X64">
+        <v>3.5</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="2"/>
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="65" ht="17" customHeight="1" spans="1:25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -5196,18 +6769,38 @@
         <v>4</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" ht="84" spans="1:19">
+        <v>446</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U65" t="s">
+        <v>22</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=plot,scalar data&amp;section=pkgs</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="X65">
+        <v>15.8</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="2"/>
+        <v>0.0158</v>
+      </c>
+    </row>
+    <row r="66" ht="17" customHeight="1" spans="1:25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5215,7 +6808,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -5226,31 +6819,51 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="67" ht="168" spans="1:19">
+        <v>450</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U66" t="s">
+        <v>22</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=visualize multiple graphs,rqt&amp;section=pkgs</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="X66">
+        <v>12</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="2"/>
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="67" ht="17" customHeight="1" spans="1:25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -5261,31 +6874,51 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" ht="51" spans="1:19">
+        <v>455</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" t="s">
+        <v>22</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="3"/>
+        <v>http://127.0.0.1:4000/search/?term=view multiple images&amp;section=pkgs</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="X67">
+        <v>34.6</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y101" si="4">X67/1000</f>
+        <v>0.0346</v>
+      </c>
+    </row>
+    <row r="68" ht="17" customHeight="1" spans="1:25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -5296,31 +6929,51 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="69" ht="84" spans="1:19">
+        <v>461</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" t="s">
+        <v>22</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" ref="V68:V101" si="5">CONCATENATE(T68,S68,U68)</f>
+        <v>http://127.0.0.1:4000/search/?term=visualize 3d data 3d world&amp;section=pkgs</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="X68">
+        <v>110.1</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="4"/>
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="69" ht="17" customHeight="1" spans="1:25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -5331,31 +6984,51 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="70" ht="84" spans="1:19">
+        <v>465</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" t="s">
+        <v>22</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=visualize,filter,analyze log messages&amp;section=pkgs</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="X69">
+        <v>21.6</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="4"/>
+        <v>0.0216</v>
+      </c>
+    </row>
+    <row r="70" ht="17" customHeight="1" spans="1:25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5369,25 +7042,45 @@
         <v>6</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" ht="51" spans="1:19">
+        <v>472</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" t="s">
+        <v>22</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=view the state graph nodes,graph&amp;section=pkgs</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="X70">
+        <v>136.3</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="4"/>
+        <v>0.1363</v>
+      </c>
+    </row>
+    <row r="71" ht="17" customHeight="1" spans="1:25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -5399,33 +7092,53 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="72" ht="185" spans="1:19">
+        <v>474</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" t="s">
+        <v>22</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=create robot model&amp;section=pkgs</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="X71">
+        <v>193.3</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="4"/>
+        <v>0.1933</v>
+      </c>
+    </row>
+    <row r="72" ht="17" customHeight="1" spans="1:25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>407</v>
+        <v>478</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -5436,33 +7149,53 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="73" ht="409.5" spans="1:19">
+        <v>477</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=open gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="X72">
+        <v>34.1</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="4"/>
+        <v>0.0341</v>
+      </c>
+    </row>
+    <row r="73" ht="17" customHeight="1" spans="1:25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -5476,30 +7209,50 @@
         <v>13</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="74" ht="101" spans="1:19">
+        <v>481</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U73" t="s">
+        <v>22</v>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=transform the coordinateframes&amp;section=pkgs</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="X73">
+        <v>5</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="4"/>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="74" ht="17" customHeight="1" spans="1:25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -5510,31 +7263,51 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="75" ht="84" spans="1:19">
+        <v>490</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U74" t="s">
+        <v>22</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=teleoperate robot twist messages,keyboard&amp;section=pkgs</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="X74">
+        <v>21.8</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="4"/>
+        <v>0.0218</v>
+      </c>
+    </row>
+    <row r="75" ht="17" customHeight="1" spans="1:25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -5545,31 +7318,51 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" ht="101" spans="1:19">
+        <v>496</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" t="s">
+        <v>22</v>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=locating the robot 2d environment&amp;section=pkgs</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="X75">
+        <v>25.5</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="4"/>
+        <v>0.0255</v>
+      </c>
+    </row>
+    <row r="76" ht="17" customHeight="1" spans="1:25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>423</v>
+        <v>498</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>424</v>
+        <v>499</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -5580,33 +7373,53 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="77" ht="152" spans="1:19">
+        <v>502</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U76" t="s">
+        <v>22</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=get feedbacks executing robot commands&amp;section=pkgs</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="X76">
+        <v>53.9</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="4"/>
+        <v>0.0539</v>
+      </c>
+    </row>
+    <row r="77" ht="17" customHeight="1" spans="1:25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>429</v>
+        <v>505</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5620,30 +7433,50 @@
         <v>4</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="78" ht="336" spans="1:19">
+        <v>509</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U77" t="s">
+        <v>22</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=start the setup helper moveit&amp;section=pkgs</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="X77">
+        <v>41.4</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="4"/>
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="78" ht="17" customHeight="1" spans="1:25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>434</v>
+        <v>511</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>435</v>
+        <v>512</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>434</v>
+        <v>511</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>434</v>
+        <v>511</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -5654,33 +7487,53 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" ht="336" spans="1:19">
+        <v>511</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U78" t="s">
+        <v>22</v>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=provide base markers&amp;section=pkgs</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="X78">
+        <v>100.9</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="4"/>
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="79" ht="17" customHeight="1" spans="1:25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>438</v>
+        <v>516</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>441</v>
+        <v>519</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -5691,33 +7544,53 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="80" ht="84" spans="1:19">
+        <v>520</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U79" t="s">
+        <v>22</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=start the server grasp,moveit&amp;section=pkgs</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="X79">
+        <v>13.5</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="4"/>
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="80" ht="17" customHeight="1" spans="1:25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>445</v>
+        <v>524</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>446</v>
+        <v>525</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>447</v>
+        <v>526</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -5728,33 +7601,53 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" ht="409.5" spans="1:19">
+        <v>527</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U80" t="s">
+        <v>22</v>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=use arduino rosserial protocol&amp;section=pkgs</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="X80">
+        <v>182.1</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="4"/>
+        <v>0.1821</v>
+      </c>
+    </row>
+    <row r="81" ht="17" customHeight="1" spans="1:25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>451</v>
+        <v>531</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>452</v>
+        <v>532</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -5765,33 +7658,53 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" ht="101" spans="1:19">
+        <v>534</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U81" t="s">
+        <v>22</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=use razor_imu GUI&amp;section=pkgs</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="X81">
+        <v>243.2</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="4"/>
+        <v>0.2432</v>
+      </c>
+    </row>
+    <row r="82" ht="17" customHeight="1" spans="1:25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>455</v>
+        <v>536</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>456</v>
+        <v>537</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>458</v>
+        <v>539</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -5805,27 +7718,47 @@
         <v>1</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="83" ht="252" spans="1:19">
+        <v>540</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U82" t="s">
+        <v>22</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=Xsens MTi node driver&amp;section=pkgs</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="X82">
+        <v>132.8</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="4"/>
+        <v>0.1328</v>
+      </c>
+    </row>
+    <row r="83" ht="17" customHeight="1" spans="1:25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -5840,30 +7773,50 @@
         <v>1</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="84" ht="84" spans="1:19">
+        <v>545</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U83" t="s">
+        <v>22</v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=parse nmea strings,publish GPS messages&amp;section=pkgs</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="X83">
+        <v>42.2</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="4"/>
+        <v>0.0422</v>
+      </c>
+    </row>
+    <row r="84" ht="17" customHeight="1" spans="1:25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>466</v>
+        <v>549</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -5874,33 +7827,53 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="85" ht="336" spans="1:19">
+        <v>551</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U84" t="s">
+        <v>22</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=Hokuyo Scanning range finder driver&amp;section=pkgs</v>
+      </c>
+      <c r="W84" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="X84">
+        <v>335</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="4"/>
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="85" ht="17" customHeight="1" spans="1:25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>469</v>
+        <v>553</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>470</v>
+        <v>554</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>471</v>
+        <v>555</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>469</v>
+        <v>553</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -5914,32 +7887,52 @@
         <v>1</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="86" ht="68" spans="1:19">
+        <v>553</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U85" t="s">
+        <v>22</v>
+      </c>
+      <c r="V85" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=launch openni device&amp;section=pkgs</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="X85">
+        <v>22.5</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="4"/>
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="86" ht="17" customHeight="1" spans="1:25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -5948,31 +7941,51 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" ht="370" spans="1:19">
+        <v>556</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U86" t="s">
+        <v>22</v>
+      </c>
+      <c r="V86" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=openni device&amp;section=pkgs</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="X86">
+        <v>356.6</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="4"/>
+        <v>0.3566</v>
+      </c>
+    </row>
+    <row r="87" ht="17" customHeight="1" spans="1:25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>476</v>
+        <v>562</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>477</v>
+        <v>563</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -5983,31 +7996,51 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="88" ht="303" spans="1:19">
+        <v>565</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U87" t="s">
+        <v>22</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=driver,Kinect&amp;section=pkgs</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="X87">
+        <v>2.1</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="4"/>
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="88" ht="17" customHeight="1" spans="1:25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>482</v>
+        <v>569</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>483</v>
+        <v>570</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -6021,30 +8054,50 @@
         <v>7</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" ht="409.5" spans="1:19">
+        <v>570</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U88" t="s">
+        <v>22</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=driver,camera1394&amp;section=pkgs</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="X88">
+        <v>3.2</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="4"/>
+        <v>0.0032</v>
+      </c>
+    </row>
+    <row r="89" ht="17" customHeight="1" spans="1:25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>484</v>
+        <v>572</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>485</v>
+        <v>573</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>486</v>
+        <v>574</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>487</v>
+        <v>575</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>488</v>
+        <v>576</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -6058,30 +8111,50 @@
         <v>3</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="90" ht="387" spans="1:19">
+        <v>577</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U89" t="s">
+        <v>22</v>
+      </c>
+      <c r="V89" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=transporting images plugins&amp;section=pkgs</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="X89">
+        <v>304.1</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="4"/>
+        <v>0.3041</v>
+      </c>
+    </row>
+    <row r="90" ht="17" customHeight="1" spans="1:25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>490</v>
+        <v>579</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>491</v>
+        <v>580</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>492</v>
+        <v>581</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>490</v>
+        <v>579</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -6095,30 +8168,50 @@
         <v>5</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="91" ht="409.5" spans="1:19">
+        <v>579</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U90" t="s">
+        <v>22</v>
+      </c>
+      <c r="V90" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=process stereo camera pairs&amp;section=pkgs</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="X90">
+        <v>286.1</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="4"/>
+        <v>0.2861</v>
+      </c>
+    </row>
+    <row r="91" ht="17" customHeight="1" spans="1:25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>493</v>
+        <v>583</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>494</v>
+        <v>584</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>496</v>
+        <v>586</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -6132,30 +8225,50 @@
         <v>1</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="92" ht="409.5" spans="1:19">
+        <v>588</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U91" t="s">
+        <v>22</v>
+      </c>
+      <c r="V91" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=track moving edges ViSP&amp;section=pkgs</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="X91">
+        <v>6.7</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="4"/>
+        <v>0.0067</v>
+      </c>
+    </row>
+    <row r="92" ht="17" customHeight="1" spans="1:25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>499</v>
+        <v>590</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>500</v>
+        <v>591</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>501</v>
+        <v>592</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>502</v>
+        <v>593</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -6169,30 +8282,50 @@
         <v>2</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="93" ht="269" spans="1:19">
+        <v>594</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U92" t="s">
+        <v>22</v>
+      </c>
+      <c r="V92" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=model based tracker ViSP&amp;section=pkgs</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="X92">
+        <v>438.4</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="4"/>
+        <v>0.4384</v>
+      </c>
+    </row>
+    <row r="93" ht="17" customHeight="1" spans="1:25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>504</v>
+        <v>596</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>505</v>
+        <v>597</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>506</v>
+        <v>598</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -6206,27 +8339,47 @@
         <v>1</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="94" ht="236" spans="1:19">
+        <v>599</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U93" t="s">
+        <v>22</v>
+      </c>
+      <c r="V93" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=interface ViSP&amp;section=pkgs</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="X93">
+        <v>183.1</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="4"/>
+        <v>0.1831</v>
+      </c>
+    </row>
+    <row r="94" ht="17" customHeight="1" spans="1:25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>509</v>
+        <v>602</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>510</v>
+        <v>603</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>511</v>
+        <v>604</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>509</v>
+        <v>602</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -6238,33 +8391,53 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="95" ht="185" spans="1:19">
+        <v>602</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U94" t="s">
+        <v>22</v>
+      </c>
+      <c r="V94" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=recognize objects&amp;section=pkgs</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="X94">
+        <v>355</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="4"/>
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="95" ht="17" customHeight="1" spans="1:25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>513</v>
+        <v>607</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>514</v>
+        <v>608</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -6275,33 +8448,53 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="96" ht="68" spans="1:19">
+        <v>606</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U95" t="s">
+        <v>22</v>
+      </c>
+      <c r="V95" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=visual-based odometry&amp;section=pkgs</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="X95">
+        <v>75.4</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="4"/>
+        <v>0.0754</v>
+      </c>
+    </row>
+    <row r="96" ht="17" customHeight="1" spans="1:25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>516</v>
+        <v>611</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>517</v>
+        <v>612</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -6312,35 +8505,55 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="97" ht="152" spans="1:19">
+        <v>610</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U96" t="s">
+        <v>22</v>
+      </c>
+      <c r="V96" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=visual odometry&amp;section=pkgs</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="X96">
+        <v>76.9</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="4"/>
+        <v>0.0769</v>
+      </c>
+    </row>
+    <row r="97" ht="17" customHeight="1" spans="1:25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>518</v>
+        <v>614</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>519</v>
+        <v>615</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>520</v>
+        <v>616</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>521</v>
+        <v>617</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -6349,33 +8562,53 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="98" ht="68" spans="1:19">
+        <v>617</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U97" t="s">
+        <v>22</v>
+      </c>
+      <c r="V97" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=point cloud library&amp;section=pkgs</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="X97">
+        <v>177.8</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="4"/>
+        <v>0.1778</v>
+      </c>
+    </row>
+    <row r="98" ht="17" customHeight="1" spans="1:25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>522</v>
+        <v>619</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>523</v>
+        <v>620</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>522</v>
+        <v>619</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>525</v>
+        <v>622</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -6386,31 +8619,51 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="99" ht="353" spans="1:19">
+        <v>619</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U98" t="s">
+        <v>22</v>
+      </c>
+      <c r="V98" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=record the point cloud messages&amp;section=pkgs</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="X98">
+        <v>490.5</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="4"/>
+        <v>0.4905</v>
+      </c>
+    </row>
+    <row r="99" ht="17" customHeight="1" spans="1:25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -6424,32 +8677,52 @@
         <v>8</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="100" ht="152" spans="1:19">
+        <v>627</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U99" t="s">
+        <v>22</v>
+      </c>
+      <c r="V99" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=PCL interface ,ROS&amp;section=pkgs</v>
+      </c>
+      <c r="W99" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="X99">
+        <v>163.1</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="4"/>
+        <v>0.1631</v>
+      </c>
+    </row>
+    <row r="100" ht="17" customHeight="1" spans="1:25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>530</v>
+        <v>629</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>531</v>
+        <v>630</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>532</v>
+        <v>631</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>533</v>
+        <v>632</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>534</v>
+        <v>633</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>535</v>
+        <v>634</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -6460,35 +8733,55 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="101" ht="185" spans="1:19">
+        <v>635</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U100" t="s">
+        <v>22</v>
+      </c>
+      <c r="V100" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=start mir-100 robot in gazebo&amp;section=pkgs</v>
+      </c>
+      <c r="W100" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="X100">
+        <v>138.9</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="4"/>
+        <v>0.1389</v>
+      </c>
+    </row>
+    <row r="101" ht="17" customHeight="1" spans="1:25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>537</v>
+        <v>637</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>538</v>
+        <v>638</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>539</v>
+        <v>639</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>542</v>
+        <v>642</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -6499,13 +8792,255 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>543</v>
+        <v>643</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U101" t="s">
+        <v>22</v>
+      </c>
+      <c r="V101" t="str">
+        <f t="shared" si="5"/>
+        <v>http://127.0.0.1:4000/search/?term=run mapping algorithm MiR robot,hector_mapping&amp;section=pkgs</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="X101">
+        <v>177.4</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="4"/>
+        <v>0.1774</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="24:25">
+      <c r="X102">
+        <f>AVERAGE(X2:X101)</f>
+        <v>69.009</v>
+      </c>
+      <c r="Y102">
+        <f>AVERAGE(Y2:Y101)</f>
+        <v>0.069009</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="24:25">
+      <c r="X103">
+        <f>STDEVPA(X2:X101)</f>
+        <v>105.111644545217</v>
+      </c>
+      <c r="Y103">
+        <f>STDEVPA(Y2:Y101)</f>
+        <v>0.105111644545217</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="W2" r:id="rId2" display="http://127.0.0.1:4000/search/?term=discover other ROS masters&amp;section=pkgs"/>
+    <hyperlink ref="T3" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T4" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T5" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T6" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T7" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T8" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T9" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T10" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T11" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T12" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T13" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T24" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T35" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T46" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T57" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T68" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T79" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T90" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T101" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T14" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T25" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T36" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T47" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T58" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T69" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T80" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T91" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T15" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T26" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T37" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T48" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T59" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T70" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T81" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T92" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T16" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T27" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T38" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T49" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T60" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T71" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T82" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T93" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T17" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T28" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T39" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T50" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T61" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T72" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T83" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T94" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T18" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T29" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T40" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T51" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T62" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T73" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T84" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T95" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T19" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T30" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T41" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T52" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T63" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T74" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T85" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T96" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T20" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T31" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T42" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T53" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T64" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T75" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T86" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T97" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T21" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T32" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T43" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T54" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T65" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T76" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T87" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T98" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T22" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T33" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T44" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T55" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T66" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T77" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T88" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T99" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T23" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T34" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T45" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T56" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T67" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T78" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T89" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="T100" r:id="rId1" display="http://127.0.0.1:4000/search/?term="/>
+    <hyperlink ref="W3" r:id="rId3" display="http://127.0.0.1:4000/search/?term=Synchronize the local ROS master&amp;section=pkgs"/>
+    <hyperlink ref="W4" r:id="rId4" display="http://127.0.0.1:4000/search/?term=steering a robot using Twist messages,GUI plugin&amp;section=pkgs"/>
+    <hyperlink ref="W5" r:id="rId5" display="http://127.0.0.1:4000/search/?term=capture camera image,OpenCV&amp;section=pkgs"/>
+    <hyperlink ref="W6" r:id="rId6" display="http://127.0.0.1:4000/search/?term=view image,viewer,ROS image topics&amp;section=pkgs"/>
+    <hyperlink ref="W7" r:id="rId7" display="http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar for easy install velodyne&amp;section=pkgs"/>
+    <hyperlink ref="W8" r:id="rId8" display="http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar&amp;section=pkgs"/>
+    <hyperlink ref="W9" r:id="rId9" display="http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar, provide simulated data, gazebo plugin&amp;section=pkgs"/>
+    <hyperlink ref="W10" r:id="rId10" display="http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar driver&amp;section=pkgs"/>
+    <hyperlink ref="W11" r:id="rId11" display="http://127.0.0.1:4000/search/?term=velodyne hdl-64e 3d lidar convert to point cloud&amp;section=pkgs"/>
+    <hyperlink ref="W12" r:id="rId12" display="http://127.0.0.1:4000/search/?term=leap_motion ROS driver&amp;section=pkgs"/>
+    <hyperlink ref="W13" r:id="rId13" display="http://127.0.0.1:4000/search/?term=visualize 3d markers&amp;section=pkgs"/>
+    <hyperlink ref="W14" r:id="rId14" display="http://127.0.0.1:4000/search/?term=V4L USB Cameras,driver&amp;section=pkgs"/>
+    <hyperlink ref="W15" r:id="rId15" display="http://127.0.0.1:4000/search/?term=ROS topics,directing&amp;section=pkgs"/>
+    <hyperlink ref="W16" r:id="rId16" display="http://127.0.0.1:4000/search/?term=Dynamixel interface with servo motors&amp;section=pkgs"/>
+    <hyperlink ref="W17" r:id="rId17" display="http://127.0.0.1:4000/search/?term=Dynamixel tutorial&amp;section=pkgs"/>
+    <hyperlink ref="W18" r:id="rId18" display="http://127.0.0.1:4000/search/?term=convert images,ROS Image messages,OpenCV images&amp;section=pkgs"/>
+    <hyperlink ref="W19" r:id="rId19" display="http://127.0.0.1:4000/search/?term=interpreting images,calibration OpenCV,sensor_msgs/Image&amp;section=pkgs" tooltip="http://127.0.0.1:4000/search/?term=interpreting images,calibration OpenCV,sensor_msgs/Image&amp;section=pkgs"/>
+    <hyperlink ref="W20" r:id="rId20" display="http://127.0.0.1:4000/search/?term=Turtlebot2 Gazebo,simulation&amp;section=pkgs"/>
+    <hyperlink ref="W21" r:id="rId21" display="http://127.0.0.1:4000/search/?term=Turtlebot2 dashboard&amp;section=pkgs"/>
+    <hyperlink ref="W22" r:id="rId22" display="http://127.0.0.1:4000/search/?term=Kobuki automatic docking&amp;section=pkgs"/>
+    <hyperlink ref="W23" r:id="rId23" display="http://127.0.0.1:4000/search/?term=simple viewer,ROS image topics&amp;section=pkgs"/>
+    <hyperlink ref="W24" r:id="rId24" display="http://127.0.0.1:4000/search/?term=starting the TurtleBot2&amp;section=pkgs"/>
+    <hyperlink ref="W25" r:id="rId25" display="http://127.0.0.1:4000/search/?term=Turtlebot2 create maps navigation&amp;section=pkgs"/>
+    <hyperlink ref="W26" r:id="rId26" display="http://127.0.0.1:4000/search/?term=visualize turtlebot2 rviz&amp;section=pkgs"/>
+    <hyperlink ref="W27" r:id="rId27" display="http://127.0.0.1:4000/search/?term=teleoperate turtlebot2 use joysticks&amp;section=pkgs"/>
+    <hyperlink ref="W28" r:id="rId28" display="http://127.0.0.1:4000/search/?term=save the map&amp;section=pkgs"/>
+    <hyperlink ref="W29" r:id="rId29" display="http://127.0.0.1:4000/search/?term=modify the parameters,rqt plugin&amp;section=pkgs"/>
+    <hyperlink ref="W30" r:id="rId30" display="http://127.0.0.1:4000/search/?term=baxter gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W31" r:id="rId31" display="http://127.0.0.1:4000/search/?term=baxter simulation&amp;section=pkgs"/>
+    <hyperlink ref="W32" r:id="rId32" display="http://127.0.0.1:4000/search/?term=baxter compensate the gravity gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W33" r:id="rId33" display="http://127.0.0.1:4000/search/?term=baxter simulate the hardware interfaces gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W34" r:id="rId34" display="http://127.0.0.1:4000/search/?term=baxter samples,gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W35" r:id="rId35" display="http://127.0.0.1:4000/search/?term=baxter controller,gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W36" r:id="rId36" display="http://127.0.0.1:4000/search/?term=baxter URDF,mesh&amp;section=pkgs"/>
+    <hyperlink ref="W37" r:id="rId37" display="http://127.0.0.1:4000/search/?term=baxter&amp;section=pkgs"/>
+    <hyperlink ref="W38" r:id="rId38" display="http://127.0.0.1:4000/search/?term=hector quadrotor,joystick&amp;section=pkgs"/>
+    <hyperlink ref="W39" r:id="rId39" display="http://127.0.0.1:4000/search/?term=supply plugins gazebo,hector quadrotor&amp;section=pkgs"/>
+    <hyperlink ref="W40" r:id="rId40" display="http://127.0.0.1:4000/search/?term=quadrotor,heactor,gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W41" r:id="rId41" display="http://127.0.0.1:4000/search/?term=URDF model,quadrotor UAV,heactor quadrotor&amp;section=pkgs"/>
+    <hyperlink ref="W42" r:id="rId42" display="http://127.0.0.1:4000/search/?term=demonstration,heator quadrotor&amp;section=pkgs"/>
+    <hyperlink ref="W43" r:id="rId43" display="http://127.0.0.1:4000/search/?term=crazyflie demostration&amp;section=pkgs"/>
+    <hyperlink ref="W44" r:id="rId44" display="http://127.0.0.1:4000/search/?term=crazyflie driver&amp;section=pkgs"/>
+    <hyperlink ref="W45" r:id="rId45" display="http://127.0.0.1:4000/search/?term=crazyflie URDF model&amp;section=pkgs"/>
+    <hyperlink ref="W46" r:id="rId46" display="http://127.0.0.1:4000/search/?term=crazyflie navigation PID controller&amp;section=pkgs"/>
+    <hyperlink ref="W47" r:id="rId47" display="http://127.0.0.1:4000/search/?term=bebop,tools&amp;section=pkgs"/>
+    <hyperlink ref="W48" r:id="rId48" display="http://127.0.0.1:4000/search/?term=bebop&amp;section=pkgs"/>
+    <hyperlink ref="W49" r:id="rId49" display="http://127.0.0.1:4000/search/?term=bebop bebop_driver_node&amp;section=pkgs"/>
+    <hyperlink ref="W50" r:id="rId50" display="http://127.0.0.1:4000/search/?term=bebop,URDF&amp;section=pkgs"/>
+    <hyperlink ref="W51" r:id="rId51" display="http://127.0.0.1:4000/search/?term=python,rosserial protocol&amp;section=pkgs"/>
+    <hyperlink ref="W52" r:id="rId52" display="http://127.0.0.1:4000/search/?term=save audio,play audio, microphone,mp3 file,audio&amp;section=pkgs"/>
+    <hyperlink ref="W53" r:id="rId53" display="http://127.0.0.1:4000/search/?term=play audio,audio&amp;section=pkgs"/>
+    <hyperlink ref="W54" r:id="rId54" display="http://127.0.0.1:4000/search/?term=translate commaond&amp;section=pkgs"/>
+    <hyperlink ref="W55" r:id="rId55" display="http://127.0.0.1:4000/search/?term=audio&amp;section=pkgs"/>
+    <hyperlink ref="W56" r:id="rId56" display="http://127.0.0.1:4000/search/?term=audio monitor based on browser rospeex,web monitor&amp;section=pkgs"/>
+    <hyperlink ref="W57" r:id="rId57" display="http://127.0.0.1:4000/search/?term=give rospeex examples&amp;section=pkgs"/>
+    <hyperlink ref="W58" r:id="rId58" display="http://127.0.0.1:4000/search/?term=rospeex&amp;section=pkgs"/>
+    <hyperlink ref="W59" r:id="rId59" display="http://127.0.0.1:4000/search/?term=provide launches rospeex&amp;section=pkgs"/>
+    <hyperlink ref="W60" r:id="rId60" display="http://127.0.0.1:4000/search/?term=include interface library rospeex&amp;section=pkgs"/>
+    <hyperlink ref="W61" r:id="rId61" display="http://127.0.0.1:4000/search/?term=include core node rospeex&amp;section=pkgs"/>
+    <hyperlink ref="W62" r:id="rId62" display="http://127.0.0.1:4000/search/?term=audio monitor rospeex&amp;section=pkgs"/>
+    <hyperlink ref="W63" r:id="rId58" display="http://127.0.0.1:4000/search/?term=rospeex&amp;section=pkgs"/>
+    <hyperlink ref="W64" r:id="rId63" display="http://127.0.0.1:4000/search/?term=detect faces,image&amp;section=pkgs"/>
+    <hyperlink ref="W65" r:id="rId64" display="http://127.0.0.1:4000/search/?term=plot,scalar data&amp;section=pkgs"/>
+    <hyperlink ref="W66" r:id="rId65" display="http://127.0.0.1:4000/search/?term=visualize multiple graphs,rqt&amp;section=pkgs"/>
+    <hyperlink ref="W67" r:id="rId66" display="http://127.0.0.1:4000/search/?term=view multiple images&amp;section=pkgs"/>
+    <hyperlink ref="W68" r:id="rId67" display="http://127.0.0.1:4000/search/?term=visualize 3d data 3d world&amp;section=pkgs"/>
+    <hyperlink ref="W69" r:id="rId68" display="http://127.0.0.1:4000/search/?term=visualize,filter,analyze log messages&amp;section=pkgs"/>
+    <hyperlink ref="W70" r:id="rId69" display="http://127.0.0.1:4000/search/?term=view the state graph nodes,graph&amp;section=pkgs"/>
+    <hyperlink ref="W71" r:id="rId70" display="http://127.0.0.1:4000/search/?term=create robot model&amp;section=pkgs"/>
+    <hyperlink ref="W72" r:id="rId71" display="http://127.0.0.1:4000/search/?term=open gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W73" r:id="rId72" display="http://127.0.0.1:4000/search/?term=transform the coordinateframes&amp;section=pkgs"/>
+    <hyperlink ref="W74" r:id="rId73" display="http://127.0.0.1:4000/search/?term=teleoperate robot twist messages,keyboard&amp;section=pkgs"/>
+    <hyperlink ref="W75" r:id="rId74" display="http://127.0.0.1:4000/search/?term=locating the robot 2d environment&amp;section=pkgs"/>
+    <hyperlink ref="W76" r:id="rId75" display="http://127.0.0.1:4000/search/?term=get feedbacks executing robot commands&amp;section=pkgs"/>
+    <hyperlink ref="W77" r:id="rId76" display="http://127.0.0.1:4000/search/?term=start the setup helper moveit&amp;section=pkgs"/>
+    <hyperlink ref="W78" r:id="rId77" display="http://127.0.0.1:4000/search/?term=provide base markers&amp;section=pkgs"/>
+    <hyperlink ref="W79" r:id="rId78" display="http://127.0.0.1:4000/search/?term=start the server grasp,moveit&amp;section=pkgs"/>
+    <hyperlink ref="W80" r:id="rId79" display="http://127.0.0.1:4000/search/?term=use arduino rosserial protocol&amp;section=pkgs"/>
+    <hyperlink ref="W81" r:id="rId80" display="http://127.0.0.1:4000/search/?term=use razor_imu GUI&amp;section=pkgs"/>
+    <hyperlink ref="W82" r:id="rId81" display="http://127.0.0.1:4000/search/?term=Xsens MTi node driver&amp;section=pkgs"/>
+    <hyperlink ref="W83" r:id="rId82" display="http://127.0.0.1:4000/search/?term=parse nmea strings,publish GPS messages&amp;section=pkgs"/>
+    <hyperlink ref="W84" r:id="rId83" display="http://127.0.0.1:4000/search/?term=Hokuyo Scanning range finder driver&amp;section=pkgs"/>
+    <hyperlink ref="W85" r:id="rId84" display="http://127.0.0.1:4000/search/?term=launch openni device&amp;section=pkgs"/>
+    <hyperlink ref="W86" r:id="rId85" display="http://127.0.0.1:4000/search/?term=openni device&amp;section=pkgs"/>
+    <hyperlink ref="W87" r:id="rId86" display="http://127.0.0.1:4000/search/?term=driver,Kinect&amp;section=pkgs"/>
+    <hyperlink ref="W88" r:id="rId87" display="http://127.0.0.1:4000/search/?term=driver,camera1394&amp;section=pkgs"/>
+    <hyperlink ref="W89" r:id="rId88" display="http://127.0.0.1:4000/search/?term=transporting images plugins&amp;section=pkgs"/>
+    <hyperlink ref="W90" r:id="rId89" display="http://127.0.0.1:4000/search/?term=process stereo camera pairs&amp;section=pkgs"/>
+    <hyperlink ref="W91" r:id="rId90" display="http://127.0.0.1:4000/search/?term=track moving edges ViSP&amp;section=pkgs"/>
+    <hyperlink ref="W92" r:id="rId91" display="http://127.0.0.1:4000/search/?term=model based tracker ViSP&amp;section=pkgs"/>
+    <hyperlink ref="W93" r:id="rId92" display="http://127.0.0.1:4000/search/?term=interface ViSP&amp;section=pkgs"/>
+    <hyperlink ref="W94" r:id="rId93" display="http://127.0.0.1:4000/search/?term=recognize objects&amp;section=pkgs"/>
+    <hyperlink ref="W95" r:id="rId94" display="http://127.0.0.1:4000/search/?term=visual-based odometry&amp;section=pkgs"/>
+    <hyperlink ref="W96" r:id="rId95" display="http://127.0.0.1:4000/search/?term=visual odometry&amp;section=pkgs"/>
+    <hyperlink ref="W97" r:id="rId96" display="http://127.0.0.1:4000/search/?term=point cloud library&amp;section=pkgs"/>
+    <hyperlink ref="W98" r:id="rId97" display="http://127.0.0.1:4000/search/?term=record the point cloud messages&amp;section=pkgs"/>
+    <hyperlink ref="W99" r:id="rId98" display="http://127.0.0.1:4000/search/?term=PCL interface ,ROS&amp;section=pkgs"/>
+    <hyperlink ref="W100" r:id="rId99" display="http://127.0.0.1:4000/search/?term=start mir-100 robot in gazebo&amp;section=pkgs"/>
+    <hyperlink ref="W101" r:id="rId100" display="http://127.0.0.1:4000/search/?term=run mapping algorithm MiR robot,hector_mapping&amp;section=pkgs"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
